--- a/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT .xlsx
@@ -396,7 +396,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung nicht eindeutig. Relation G70 - 586 ist im BfArM nicht vorhanden. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation G70 - 586 ist im BfArM nicht vorhanden. </t>
         </is>
       </c>
     </row>
@@ -416,7 +416,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung nicht eindeutig. Relation G70 - 589 ist im BfArM nicht vorhanden. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation G70 - 589 ist im BfArM nicht vorhanden. </t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
+          <t xml:space="preserve">ICD10 Kodierung E66.89  ist nach Tracerdiagnosen nicht eindeutig.  Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
+          <t xml:space="preserve">ICD10 Kodierung E75.2  ist nach Tracerdiagnosen nicht eindeutig.  Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
         <v>88.23999999999999</v>
       </c>
       <c r="E2">
-        <v>97.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F2">
         <v>34</v>

--- a/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT .xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E66.89  ist nach Tracerdiagnosen nicht eindeutig.  Fehlendes Orpha_Kode.  </t>
+          <t xml:space="preserve">ICD10 Kodierung E66.89 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E75.2  ist nach Tracerdiagnosen nicht eindeutig.  Fehlendes Orpha_Kode.  </t>
+          <t xml:space="preserve">ICD10 Kodierung E75.2 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlendes Orpha_Kode.  </t>
         </is>
       </c>
     </row>

--- a/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT .xlsx
+++ b/examples/Data/Export/Datenqualitätsreport_ DaliTestData_KT .xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,15 +366,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Aufnahmenummer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>ICD_primaerkode</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Orpha_Kode</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>dq_msg</t>
         </is>
@@ -388,13 +393,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>F_101645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>G70</t>
         </is>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>586</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation G70 - 586 ist im BfArM nicht vorhanden. </t>
         </is>
@@ -408,13 +418,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F_101646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>G70</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>589</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation G70 - 589 ist im BfArM nicht vorhanden. </t>
         </is>
@@ -428,13 +443,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>F_101648</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>E84.80</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>588</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E84.80 - 588 ist im BfArM nicht vorhanden.  </t>
         </is>
@@ -448,13 +468,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>F_101649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>E75.2</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>325</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 325 ist im BfArM nicht vorhanden.  </t>
         </is>
@@ -468,13 +493,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>F_101650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>E75.2</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>320</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 320 ist im BfArM nicht vorhanden.  </t>
         </is>
@@ -486,10 +516,15 @@
           <t>P_20085757</t>
         </is>
       </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F_101651</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>586</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">Fehlendes ICD10 Code.  </t>
         </is>
@@ -501,10 +536,15 @@
           <t>P_20085758</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F_101651</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>587</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">Orpha Kodierung 587 ist im BfArM-Mapping nicht enthalten.  Fehlendes ICD10 Code.  </t>
         </is>
@@ -518,10 +558,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>F_101653</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>E84.0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
         </is>
@@ -535,10 +580,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>F_101654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>D45</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">Fehlendes Orpha_Kode.  </t>
         </is>
@@ -550,7 +600,12 @@
           <t>P_20085761</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F_101655</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">Fehlendes ICD10 Code.  </t>
         </is>
@@ -564,13 +619,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>F_101656</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>E66.89</t>
         </is>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>320</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E66.89 - 320 ist im BfArM nicht vorhanden.  </t>
         </is>
@@ -584,10 +644,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>F_101757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>E66.89</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">ICD10 Kodierung E66.89 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlendes Orpha_Kode.  </t>
         </is>
@@ -601,10 +666,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>F_101658</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>E75.2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">ICD10 Kodierung E75.2 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  Fehlendes Orpha_Kode.  </t>
         </is>
@@ -618,13 +688,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>F_101660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>E85.0</t>
         </is>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>586</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E85.0 - 586 ist im BfArM nicht vorhanden.  </t>
         </is>
@@ -646,7 +721,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>basicItem</t>
+          <t>inst_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -693,14 +768,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>260123430-Dali</t>
         </is>
       </c>
       <c r="B2">
-        <v>15.47</v>
+        <v>3.13</v>
       </c>
       <c r="C2">
-        <v>84.53</v>
+        <v>96.87</v>
       </c>
       <c r="D2">
         <v>88.23999999999999</v>
